--- a/Retirement Calculator.xlsx
+++ b/Retirement Calculator.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alvin/Google Drive/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alvin/Documents/personal_finance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A14C8AF-666C-B64E-B055-202BDCCDF86E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C295111-7B7F-3641-AB76-1083491D125D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="940" windowWidth="25960" windowHeight="15980" xr2:uid="{91891DFC-1311-9B41-84E4-7377BD9BF455}"/>
   </bookViews>
@@ -24,7 +24,7 @@
     <definedName name="CurAssets">[1]Scenario!$B$5:$G$17</definedName>
     <definedName name="FixAssets">[1]Scenario!$B$22:$G$35</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,6 +35,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -101,7 +102,7 @@
     <t>Aftertax Interest</t>
   </si>
   <si>
-    <t>Notes: Jangan Pasang Asumsi Inflasi = Post-Tax Inflation (E.g. bila inflasi = 4%, bunga jangan = 5%)</t>
+    <t>Notes: Jangan Pasang Asumsi Inflasi = Post-Tax Interest Rate (E.g. bila inflasi = 4%, bunga jangan = 5%)</t>
   </si>
 </sst>
 </file>
@@ -111,7 +112,7 @@
   <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="173" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -217,9 +218,6 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="41" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="41" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="41" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -229,12 +227,15 @@
     <xf numFmtId="41" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="173" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
@@ -907,10 +908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051B44E0-716E-6649-980F-69D17B0901DB}">
-  <dimension ref="B1:K62"/>
+  <dimension ref="B1:K122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="116" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="92" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -934,28 +935,28 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="2:11" ht="20" x14ac:dyDescent="0.2">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="6">
         <v>5000000000</v>
       </c>
       <c r="H5" s="2"/>
@@ -964,78 +965,78 @@
       </c>
       <c r="K5" s="2">
         <f>G9-G10</f>
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="8">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="7">
         <v>0.06</v>
       </c>
       <c r="H6" s="2"/>
       <c r="J6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="11">
         <f>G6*(1-G8)</f>
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="8">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="7">
         <v>0.04</v>
       </c>
       <c r="H7" s="2"/>
       <c r="J7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="12">
         <f>(1+$K$6)/(1+$G$7)</f>
         <v>1.0076923076923077</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="8">
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="7">
         <v>0.2</v>
       </c>
       <c r="H8" s="2"/>
       <c r="J8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="14">
+      <c r="K8" s="12">
         <f>(1+$G$7)^(1-$K$5)</f>
-        <v>0.32065141469235708</v>
+        <v>0.39012147434412242</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="9">
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="8">
         <v>85</v>
       </c>
       <c r="H9" s="2"/>
@@ -1044,19 +1045,19 @@
       </c>
       <c r="K9" s="3">
         <f>$K$8*(1-$K$7)*($C$18*(1+$K$6)^($K$5))/(1-($K$7^($K$5)))</f>
-        <v>194764761.75177744</v>
+        <v>229437160.76330003</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="9">
-        <v>55</v>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="8">
+        <v>60</v>
       </c>
       <c r="H10" s="2"/>
     </row>
@@ -1064,30 +1065,30 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="7">
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="6">
         <f>$K$9</f>
-        <v>194764761.75177744</v>
+        <v>229437160.76330003</v>
       </c>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7">
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="6">
         <f>G12/12</f>
-        <v>16230396.812648119</v>
+        <v>19119763.396941669</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -1095,7 +1096,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="13" t="s">
         <v>19</v>
       </c>
       <c r="H15" s="2"/>
@@ -1104,22 +1105,22 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="11" t="s">
+      <c r="D17" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="9" t="s">
         <v>12</v>
       </c>
       <c r="H17" s="2"/>
@@ -1138,15 +1139,15 @@
       </c>
       <c r="E18" s="4">
         <f>K9</f>
-        <v>194764761.75177744</v>
+        <v>229437160.76330003</v>
       </c>
       <c r="F18" s="4">
-        <f>E18/12</f>
-        <v>16230396.812648119</v>
+        <f t="shared" ref="F18:F83" si="0">E18/12</f>
+        <v>19119763.396941669</v>
       </c>
       <c r="G18" s="4">
-        <f>D18-E18</f>
-        <v>45235238.24822256</v>
+        <f t="shared" ref="G18:G61" si="1">D18-E18</f>
+        <v>10562839.236699969</v>
       </c>
       <c r="H18" s="2"/>
     </row>
@@ -1155,24 +1156,24 @@
         <v>2</v>
       </c>
       <c r="C19" s="4">
-        <f>IF((B19&lt;=($G$9-$G$10)),C18+G18,0)</f>
-        <v>5045235238.2482224</v>
+        <f t="shared" ref="C19:C61" si="2">IF((B19&lt;=($G$9-$G$10)),C18+G18,0)</f>
+        <v>5010562839.2367001</v>
       </c>
       <c r="D19" s="5">
-        <f t="shared" ref="D19:D61" si="0">C19*$K$6</f>
-        <v>242171291.43591467</v>
+        <f t="shared" ref="D19:D61" si="3">C19*$K$6</f>
+        <v>240507016.28336161</v>
       </c>
       <c r="E19" s="4">
-        <f>IF((B19&lt;=($G$9-$G$10)),E18*(1+$G$7),0)</f>
-        <v>202555352.22184855</v>
+        <f t="shared" ref="E19:E61" si="4">IF((B19&lt;=($G$9-$G$10)),E18*(1+$G$7),0)</f>
+        <v>238614647.19383204</v>
       </c>
       <c r="F19" s="4">
-        <f>E19/12</f>
-        <v>16879612.685154047</v>
+        <f t="shared" si="0"/>
+        <v>19884553.932819337</v>
       </c>
       <c r="G19" s="4">
-        <f>D19-E19</f>
-        <v>39615939.214066118</v>
+        <f t="shared" si="1"/>
+        <v>1892369.0895295739</v>
       </c>
       <c r="H19" s="2"/>
     </row>
@@ -1181,24 +1182,24 @@
         <v>3</v>
       </c>
       <c r="C20" s="4">
-        <f>IF((B20&lt;=($G$9-$G$10)),C19+G19,0)</f>
-        <v>5084851177.4622889</v>
+        <f t="shared" si="2"/>
+        <v>5012455208.32623</v>
       </c>
       <c r="D20" s="5">
-        <f t="shared" si="0"/>
-        <v>244072856.51818988</v>
+        <f t="shared" si="3"/>
+        <v>240597849.99965906</v>
       </c>
       <c r="E20" s="4">
-        <f>IF((B20&lt;=($G$9-$G$10)),E19*(1+$G$7),0)</f>
-        <v>210657566.3107225</v>
+        <f t="shared" si="4"/>
+        <v>248159233.08158532</v>
       </c>
       <c r="F20" s="4">
-        <f>E20/12</f>
-        <v>17554797.192560207</v>
+        <f t="shared" si="0"/>
+        <v>20679936.09013211</v>
       </c>
       <c r="G20" s="4">
-        <f>D20-E20</f>
-        <v>33415290.207467377</v>
+        <f t="shared" si="1"/>
+        <v>-7561383.0819262564</v>
       </c>
       <c r="H20" s="2"/>
     </row>
@@ -1207,24 +1208,24 @@
         <v>4</v>
       </c>
       <c r="C21" s="4">
-        <f>IF((B21&lt;=($G$9-$G$10)),C20+G20,0)</f>
-        <v>5118266467.6697559</v>
+        <f t="shared" si="2"/>
+        <v>5004893825.2443037</v>
       </c>
       <c r="D21" s="5">
-        <f t="shared" si="0"/>
-        <v>245676790.44814828</v>
+        <f t="shared" si="3"/>
+        <v>240234903.61172658</v>
       </c>
       <c r="E21" s="4">
-        <f>IF((B21&lt;=($G$9-$G$10)),E20*(1+$G$7),0)</f>
-        <v>219083868.9631514</v>
+        <f t="shared" si="4"/>
+        <v>258085602.40484872</v>
       </c>
       <c r="F21" s="4">
-        <f>E21/12</f>
-        <v>18256989.080262616</v>
+        <f t="shared" si="0"/>
+        <v>21507133.533737395</v>
       </c>
       <c r="G21" s="4">
-        <f>D21-E21</f>
-        <v>26592921.484996885</v>
+        <f t="shared" si="1"/>
+        <v>-17850698.793122143</v>
       </c>
       <c r="H21" s="2"/>
     </row>
@@ -1233,24 +1234,24 @@
         <v>5</v>
       </c>
       <c r="C22" s="4">
-        <f>IF((B22&lt;=($G$9-$G$10)),C21+G21,0)</f>
-        <v>5144859389.1547527</v>
+        <f t="shared" si="2"/>
+        <v>4987043126.4511814</v>
       </c>
       <c r="D22" s="5">
-        <f t="shared" si="0"/>
-        <v>246953250.67942813</v>
+        <f t="shared" si="3"/>
+        <v>239378070.0696567</v>
       </c>
       <c r="E22" s="4">
-        <f>IF((B22&lt;=($G$9-$G$10)),E21*(1+$G$7),0)</f>
-        <v>227847223.72167745</v>
+        <f t="shared" si="4"/>
+        <v>268409026.50104269</v>
       </c>
       <c r="F22" s="4">
-        <f>E22/12</f>
-        <v>18987268.643473122</v>
+        <f t="shared" si="0"/>
+        <v>22367418.875086892</v>
       </c>
       <c r="G22" s="4">
-        <f>D22-E22</f>
-        <v>19106026.957750678</v>
+        <f t="shared" si="1"/>
+        <v>-29030956.431385994</v>
       </c>
       <c r="H22" s="2"/>
     </row>
@@ -1259,24 +1260,24 @@
         <v>6</v>
       </c>
       <c r="C23" s="4">
-        <f>IF((B23&lt;=($G$9-$G$10)),C22+G22,0)</f>
-        <v>5163965416.1125031</v>
+        <f t="shared" si="2"/>
+        <v>4958012170.0197954</v>
       </c>
       <c r="D23" s="5">
-        <f t="shared" si="0"/>
-        <v>247870339.97340015</v>
+        <f t="shared" si="3"/>
+        <v>237984584.16095018</v>
       </c>
       <c r="E23" s="4">
-        <f>IF((B23&lt;=($G$9-$G$10)),E22*(1+$G$7),0)</f>
-        <v>236961112.67054456</v>
+        <f t="shared" si="4"/>
+        <v>279145387.56108439</v>
       </c>
       <c r="F23" s="4">
-        <f>E23/12</f>
-        <v>19746759.389212046</v>
+        <f t="shared" si="0"/>
+        <v>23262115.630090367</v>
       </c>
       <c r="G23" s="4">
-        <f>D23-E23</f>
-        <v>10909227.302855581</v>
+        <f t="shared" si="1"/>
+        <v>-41160803.400134206</v>
       </c>
       <c r="H23" s="2"/>
     </row>
@@ -1285,24 +1286,24 @@
         <v>7</v>
       </c>
       <c r="C24" s="4">
-        <f>IF((B24&lt;=($G$9-$G$10)),C23+G23,0)</f>
-        <v>5174874643.4153585</v>
+        <f t="shared" si="2"/>
+        <v>4916851366.6196613</v>
       </c>
       <c r="D24" s="5">
-        <f t="shared" si="0"/>
-        <v>248393982.88393721</v>
+        <f t="shared" si="3"/>
+        <v>236008865.59774375</v>
       </c>
       <c r="E24" s="4">
-        <f>IF((B24&lt;=($G$9-$G$10)),E23*(1+$G$7),0)</f>
-        <v>246439557.17736635</v>
+        <f t="shared" si="4"/>
+        <v>290311203.06352776</v>
       </c>
       <c r="F24" s="4">
-        <f>E24/12</f>
-        <v>20536629.764780529</v>
+        <f t="shared" si="0"/>
+        <v>24192600.25529398</v>
       </c>
       <c r="G24" s="4">
-        <f>D24-E24</f>
-        <v>1954425.7065708637</v>
+        <f t="shared" si="1"/>
+        <v>-54302337.465784013</v>
       </c>
       <c r="H24" s="2"/>
     </row>
@@ -1311,24 +1312,24 @@
         <v>8</v>
       </c>
       <c r="C25" s="4">
-        <f>IF((B25&lt;=($G$9-$G$10)),C24+G24,0)</f>
-        <v>5176829069.1219292</v>
+        <f t="shared" si="2"/>
+        <v>4862549029.1538773</v>
       </c>
       <c r="D25" s="5">
-        <f t="shared" si="0"/>
-        <v>248487795.31785262</v>
+        <f t="shared" si="3"/>
+        <v>233402353.39938611</v>
       </c>
       <c r="E25" s="4">
-        <f>IF((B25&lt;=($G$9-$G$10)),E24*(1+$G$7),0)</f>
-        <v>256297139.464461</v>
+        <f t="shared" si="4"/>
+        <v>301923651.18606889</v>
       </c>
       <c r="F25" s="4">
-        <f>E25/12</f>
-        <v>21358094.955371749</v>
+        <f t="shared" si="0"/>
+        <v>25160304.265505742</v>
       </c>
       <c r="G25" s="4">
-        <f>D25-E25</f>
-        <v>-7809344.1466083825</v>
+        <f t="shared" si="1"/>
+        <v>-68521297.786682785</v>
       </c>
       <c r="H25" s="2"/>
     </row>
@@ -1337,24 +1338,24 @@
         <v>9</v>
       </c>
       <c r="C26" s="4">
-        <f>IF((B26&lt;=($G$9-$G$10)),C25+G25,0)</f>
-        <v>5169019724.9753208</v>
+        <f t="shared" si="2"/>
+        <v>4794027731.3671942</v>
       </c>
       <c r="D26" s="5">
-        <f t="shared" si="0"/>
-        <v>248112946.7988154</v>
+        <f t="shared" si="3"/>
+        <v>230113331.10562533</v>
       </c>
       <c r="E26" s="4">
-        <f>IF((B26&lt;=($G$9-$G$10)),E25*(1+$G$7),0)</f>
-        <v>266549025.04303944</v>
+        <f t="shared" si="4"/>
+        <v>314000597.23351169</v>
       </c>
       <c r="F26" s="4">
-        <f>E26/12</f>
-        <v>22212418.75358662</v>
+        <f t="shared" si="0"/>
+        <v>26166716.436125975</v>
       </c>
       <c r="G26" s="4">
-        <f>D26-E26</f>
-        <v>-18436078.244224042</v>
+        <f t="shared" si="1"/>
+        <v>-83887266.127886355</v>
       </c>
       <c r="H26" s="2"/>
     </row>
@@ -1363,24 +1364,24 @@
         <v>10</v>
       </c>
       <c r="C27" s="4">
-        <f>IF((B27&lt;=($G$9-$G$10)),C26+G26,0)</f>
-        <v>5150583646.7310972</v>
+        <f t="shared" si="2"/>
+        <v>4710140465.2393074</v>
       </c>
       <c r="D27" s="5">
-        <f t="shared" si="0"/>
-        <v>247228015.04309267</v>
+        <f t="shared" si="3"/>
+        <v>226086742.33148676</v>
       </c>
       <c r="E27" s="4">
-        <f>IF((B27&lt;=($G$9-$G$10)),E26*(1+$G$7),0)</f>
-        <v>277210986.044761</v>
+        <f t="shared" si="4"/>
+        <v>326560621.12285215</v>
       </c>
       <c r="F27" s="4">
-        <f>E27/12</f>
-        <v>23100915.503730085</v>
+        <f t="shared" si="0"/>
+        <v>27213385.093571011</v>
       </c>
       <c r="G27" s="4">
-        <f>D27-E27</f>
-        <v>-29982971.001668334</v>
+        <f t="shared" si="1"/>
+        <v>-100473878.79136539</v>
       </c>
       <c r="H27" s="2"/>
     </row>
@@ -1389,24 +1390,24 @@
         <v>11</v>
       </c>
       <c r="C28" s="4">
-        <f>IF((B28&lt;=($G$9-$G$10)),C27+G27,0)</f>
-        <v>5120600675.7294292</v>
+        <f t="shared" si="2"/>
+        <v>4609666586.4479418</v>
       </c>
       <c r="D28" s="5">
-        <f t="shared" si="0"/>
-        <v>245788832.43501261</v>
+        <f t="shared" si="3"/>
+        <v>221263996.1495012</v>
       </c>
       <c r="E28" s="4">
-        <f>IF((B28&lt;=($G$9-$G$10)),E27*(1+$G$7),0)</f>
-        <v>288299425.48655146</v>
+        <f t="shared" si="4"/>
+        <v>339623045.96776623</v>
       </c>
       <c r="F28" s="4">
-        <f>E28/12</f>
-        <v>24024952.123879287</v>
+        <f t="shared" si="0"/>
+        <v>28301920.497313853</v>
       </c>
       <c r="G28" s="4">
-        <f>D28-E28</f>
-        <v>-42510593.051538855</v>
+        <f t="shared" si="1"/>
+        <v>-118359049.81826502</v>
       </c>
       <c r="H28" s="2"/>
     </row>
@@ -1415,24 +1416,24 @@
         <v>12</v>
       </c>
       <c r="C29" s="4">
-        <f>IF((B29&lt;=($G$9-$G$10)),C28+G28,0)</f>
-        <v>5078090082.6778908</v>
+        <f t="shared" si="2"/>
+        <v>4491307536.6296768</v>
       </c>
       <c r="D29" s="5">
-        <f t="shared" si="0"/>
-        <v>243748323.96853876</v>
+        <f t="shared" si="3"/>
+        <v>215582761.75822449</v>
       </c>
       <c r="E29" s="4">
-        <f>IF((B29&lt;=($G$9-$G$10)),E28*(1+$G$7),0)</f>
-        <v>299831402.50601351</v>
+        <f t="shared" si="4"/>
+        <v>353207967.80647689</v>
       </c>
       <c r="F29" s="4">
-        <f>E29/12</f>
-        <v>24985950.208834458</v>
+        <f t="shared" si="0"/>
+        <v>29433997.317206409</v>
       </c>
       <c r="G29" s="4">
-        <f>D29-E29</f>
-        <v>-56083078.537474751</v>
+        <f t="shared" si="1"/>
+        <v>-137625206.0482524</v>
       </c>
       <c r="H29" s="2"/>
     </row>
@@ -1441,24 +1442,24 @@
         <v>13</v>
       </c>
       <c r="C30" s="4">
-        <f>IF((B30&lt;=($G$9-$G$10)),C29+G29,0)</f>
-        <v>5022007004.1404161</v>
+        <f t="shared" si="2"/>
+        <v>4353682330.5814247</v>
       </c>
       <c r="D30" s="5">
-        <f t="shared" si="0"/>
-        <v>241056336.19873998</v>
+        <f t="shared" si="3"/>
+        <v>208976751.86790839</v>
       </c>
       <c r="E30" s="4">
-        <f>IF((B30&lt;=($G$9-$G$10)),E29*(1+$G$7),0)</f>
-        <v>311824658.60625404</v>
+        <f t="shared" si="4"/>
+        <v>367336286.518736</v>
       </c>
       <c r="F30" s="4">
-        <f>E30/12</f>
-        <v>25985388.217187837</v>
+        <f t="shared" si="0"/>
+        <v>30611357.209894668</v>
       </c>
       <c r="G30" s="4">
-        <f>D30-E30</f>
-        <v>-70768322.407514066</v>
+        <f t="shared" si="1"/>
+        <v>-158359534.65082762</v>
       </c>
       <c r="H30" s="2"/>
     </row>
@@ -1467,24 +1468,24 @@
         <v>14</v>
       </c>
       <c r="C31" s="4">
-        <f>IF((B31&lt;=($G$9-$G$10)),C30+G30,0)</f>
-        <v>4951238681.7329025</v>
+        <f t="shared" si="2"/>
+        <v>4195322795.9305973</v>
       </c>
       <c r="D31" s="5">
-        <f t="shared" si="0"/>
-        <v>237659456.72317934</v>
+        <f t="shared" si="3"/>
+        <v>201375494.20466867</v>
       </c>
       <c r="E31" s="4">
-        <f>IF((B31&lt;=($G$9-$G$10)),E30*(1+$G$7),0)</f>
-        <v>324297644.95050424</v>
+        <f t="shared" si="4"/>
+        <v>382029737.97948545</v>
       </c>
       <c r="F31" s="4">
-        <f>E31/12</f>
-        <v>27024803.745875355</v>
+        <f t="shared" si="0"/>
+        <v>31835811.498290453</v>
       </c>
       <c r="G31" s="4">
-        <f>D31-E31</f>
-        <v>-86638188.227324903</v>
+        <f t="shared" si="1"/>
+        <v>-180654243.77481678</v>
       </c>
       <c r="H31" s="2"/>
     </row>
@@ -1493,24 +1494,24 @@
         <v>15</v>
       </c>
       <c r="C32" s="4">
-        <f>IF((B32&lt;=($G$9-$G$10)),C31+G31,0)</f>
-        <v>4864600493.505578</v>
+        <f t="shared" si="2"/>
+        <v>4014668552.1557803</v>
       </c>
       <c r="D32" s="5">
-        <f t="shared" si="0"/>
-        <v>233500823.68826774</v>
+        <f t="shared" si="3"/>
+        <v>192704090.50347745</v>
       </c>
       <c r="E32" s="4">
-        <f>IF((B32&lt;=($G$9-$G$10)),E31*(1+$G$7),0)</f>
-        <v>337269550.74852443</v>
+        <f t="shared" si="4"/>
+        <v>397310927.49866486</v>
       </c>
       <c r="F32" s="4">
-        <f>E32/12</f>
-        <v>28105795.895710368</v>
+        <f t="shared" si="0"/>
+        <v>33109243.958222073</v>
       </c>
       <c r="G32" s="4">
-        <f>D32-E32</f>
-        <v>-103768727.06025669</v>
+        <f t="shared" si="1"/>
+        <v>-204606836.9951874</v>
       </c>
       <c r="H32" s="2"/>
     </row>
@@ -1519,24 +1520,24 @@
         <v>16</v>
       </c>
       <c r="C33" s="4">
-        <f>IF((B33&lt;=($G$9-$G$10)),C32+G32,0)</f>
-        <v>4760831766.4453211</v>
+        <f t="shared" si="2"/>
+        <v>3810061715.160593</v>
       </c>
       <c r="D33" s="5">
-        <f t="shared" si="0"/>
-        <v>228519924.78937542</v>
+        <f t="shared" si="3"/>
+        <v>182882962.32770848</v>
       </c>
       <c r="E33" s="4">
-        <f>IF((B33&lt;=($G$9-$G$10)),E32*(1+$G$7),0)</f>
-        <v>350760332.77846539</v>
+        <f t="shared" si="4"/>
+        <v>413203364.59861147</v>
       </c>
       <c r="F33" s="4">
-        <f>E33/12</f>
-        <v>29230027.731538784</v>
+        <f t="shared" si="0"/>
+        <v>34433613.716550954</v>
       </c>
       <c r="G33" s="4">
-        <f>D33-E33</f>
-        <v>-122240407.98908997</v>
+        <f t="shared" si="1"/>
+        <v>-230320402.27090299</v>
       </c>
       <c r="H33" s="2"/>
     </row>
@@ -1545,24 +1546,24 @@
         <v>17</v>
       </c>
       <c r="C34" s="4">
-        <f>IF((B34&lt;=($G$9-$G$10)),C33+G33,0)</f>
-        <v>4638591358.4562311</v>
+        <f t="shared" si="2"/>
+        <v>3579741312.8896899</v>
       </c>
       <c r="D34" s="5">
-        <f t="shared" si="0"/>
-        <v>222652385.20589909</v>
+        <f t="shared" si="3"/>
+        <v>171827583.01870513</v>
       </c>
       <c r="E34" s="4">
-        <f>IF((B34&lt;=($G$9-$G$10)),E33*(1+$G$7),0)</f>
-        <v>364790746.08960402</v>
+        <f t="shared" si="4"/>
+        <v>429731499.18255597</v>
       </c>
       <c r="F34" s="4">
-        <f>E34/12</f>
-        <v>30399228.840800334</v>
+        <f t="shared" si="0"/>
+        <v>35810958.265212998</v>
       </c>
       <c r="G34" s="4">
-        <f>D34-E34</f>
-        <v>-142138360.88370493</v>
+        <f t="shared" si="1"/>
+        <v>-257903916.16385084</v>
       </c>
       <c r="H34" s="2"/>
     </row>
@@ -1571,24 +1572,24 @@
         <v>18</v>
       </c>
       <c r="C35" s="4">
-        <f>IF((B35&lt;=($G$9-$G$10)),C34+G34,0)</f>
-        <v>4496452997.572526</v>
+        <f t="shared" si="2"/>
+        <v>3321837396.7258391</v>
       </c>
       <c r="D35" s="5">
-        <f t="shared" si="0"/>
-        <v>215829743.88348126</v>
+        <f t="shared" si="3"/>
+        <v>159448195.04284027</v>
       </c>
       <c r="E35" s="4">
-        <f>IF((B35&lt;=($G$9-$G$10)),E34*(1+$G$7),0)</f>
-        <v>379382375.9331882</v>
+        <f t="shared" si="4"/>
+        <v>446920759.14985824</v>
       </c>
       <c r="F35" s="4">
-        <f>E35/12</f>
-        <v>31615197.994432349</v>
+        <f t="shared" si="0"/>
+        <v>37243396.595821522</v>
       </c>
       <c r="G35" s="4">
-        <f>D35-E35</f>
-        <v>-163552632.04970694</v>
+        <f t="shared" si="1"/>
+        <v>-287472564.10701799</v>
       </c>
       <c r="H35" s="2"/>
     </row>
@@ -1597,24 +1598,24 @@
         <v>19</v>
       </c>
       <c r="C36" s="4">
-        <f>IF((B36&lt;=($G$9-$G$10)),C35+G35,0)</f>
-        <v>4332900365.5228195</v>
+        <f t="shared" si="2"/>
+        <v>3034364832.6188211</v>
       </c>
       <c r="D36" s="5">
-        <f t="shared" si="0"/>
-        <v>207979217.54509535</v>
+        <f t="shared" si="3"/>
+        <v>145649511.96570343</v>
       </c>
       <c r="E36" s="4">
-        <f>IF((B36&lt;=($G$9-$G$10)),E35*(1+$G$7),0)</f>
-        <v>394557670.97051573</v>
+        <f t="shared" si="4"/>
+        <v>464797589.51585257</v>
       </c>
       <c r="F36" s="4">
-        <f>E36/12</f>
-        <v>32879805.914209645</v>
+        <f t="shared" si="0"/>
+        <v>38733132.459654383</v>
       </c>
       <c r="G36" s="4">
-        <f>D36-E36</f>
-        <v>-186578453.42542037</v>
+        <f t="shared" si="1"/>
+        <v>-319148077.55014914</v>
       </c>
       <c r="H36" s="2"/>
     </row>
@@ -1623,24 +1624,24 @@
         <v>20</v>
       </c>
       <c r="C37" s="4">
-        <f>IF((B37&lt;=($G$9-$G$10)),C36+G36,0)</f>
-        <v>4146321912.0973992</v>
+        <f t="shared" si="2"/>
+        <v>2715216755.0686722</v>
       </c>
       <c r="D37" s="5">
-        <f t="shared" si="0"/>
-        <v>199023451.78067517</v>
+        <f t="shared" si="3"/>
+        <v>130330404.24329627</v>
       </c>
       <c r="E37" s="4">
-        <f>IF((B37&lt;=($G$9-$G$10)),E36*(1+$G$7),0)</f>
-        <v>410339977.80933636</v>
+        <f t="shared" si="4"/>
+        <v>483389493.09648669</v>
       </c>
       <c r="F37" s="4">
-        <f>E37/12</f>
-        <v>34194998.150778033</v>
+        <f t="shared" si="0"/>
+        <v>40282457.758040555</v>
       </c>
       <c r="G37" s="4">
-        <f>D37-E37</f>
-        <v>-211316526.02866119</v>
+        <f t="shared" si="1"/>
+        <v>-353059088.85319042</v>
       </c>
       <c r="H37" s="2"/>
     </row>
@@ -1649,24 +1650,24 @@
         <v>21</v>
       </c>
       <c r="C38" s="4">
-        <f>IF((B38&lt;=($G$9-$G$10)),C37+G37,0)</f>
-        <v>3935005386.068738</v>
+        <f t="shared" si="2"/>
+        <v>2362157666.2154818</v>
       </c>
       <c r="D38" s="5">
-        <f t="shared" si="0"/>
-        <v>188880258.53129941</v>
+        <f t="shared" si="3"/>
+        <v>113383567.97834313</v>
       </c>
       <c r="E38" s="4">
-        <f>IF((B38&lt;=($G$9-$G$10)),E37*(1+$G$7),0)</f>
-        <v>426753576.92170984</v>
+        <f t="shared" si="4"/>
+        <v>502725072.82034618</v>
       </c>
       <c r="F38" s="4">
-        <f>E38/12</f>
-        <v>35562798.076809153</v>
+        <f t="shared" si="0"/>
+        <v>41893756.068362184</v>
       </c>
       <c r="G38" s="4">
-        <f>D38-E38</f>
-        <v>-237873318.39041042</v>
+        <f t="shared" si="1"/>
+        <v>-389341504.84200305</v>
       </c>
       <c r="H38" s="2"/>
     </row>
@@ -1675,24 +1676,24 @@
         <v>22</v>
       </c>
       <c r="C39" s="4">
-        <f>IF((B39&lt;=($G$9-$G$10)),C38+G38,0)</f>
-        <v>3697132067.6783276</v>
+        <f t="shared" si="2"/>
+        <v>1972816161.3734787</v>
       </c>
       <c r="D39" s="5">
-        <f t="shared" si="0"/>
-        <v>177462339.24855971</v>
+        <f t="shared" si="3"/>
+        <v>94695175.745926976</v>
       </c>
       <c r="E39" s="4">
-        <f>IF((B39&lt;=($G$9-$G$10)),E38*(1+$G$7),0)</f>
-        <v>443823719.99857825</v>
+        <f t="shared" si="4"/>
+        <v>522834075.73316002</v>
       </c>
       <c r="F39" s="4">
-        <f>E39/12</f>
-        <v>36985309.999881521</v>
+        <f t="shared" si="0"/>
+        <v>43569506.311096668</v>
       </c>
       <c r="G39" s="4">
-        <f>D39-E39</f>
-        <v>-266361380.75001854</v>
+        <f t="shared" si="1"/>
+        <v>-428138899.98723304</v>
       </c>
       <c r="H39" s="2"/>
     </row>
@@ -1701,24 +1702,24 @@
         <v>23</v>
       </c>
       <c r="C40" s="4">
-        <f>IF((B40&lt;=($G$9-$G$10)),C39+G39,0)</f>
-        <v>3430770686.928309</v>
+        <f t="shared" si="2"/>
+        <v>1544677261.3862457</v>
       </c>
       <c r="D40" s="5">
-        <f t="shared" si="0"/>
-        <v>164676992.97255883</v>
+        <f t="shared" si="3"/>
+        <v>74144508.546539798</v>
       </c>
       <c r="E40" s="4">
-        <f>IF((B40&lt;=($G$9-$G$10)),E39*(1+$G$7),0)</f>
-        <v>461576668.7985214</v>
+        <f t="shared" si="4"/>
+        <v>543747438.76248646</v>
       </c>
       <c r="F40" s="4">
-        <f>E40/12</f>
-        <v>38464722.399876781</v>
+        <f t="shared" si="0"/>
+        <v>45312286.563540541</v>
       </c>
       <c r="G40" s="4">
-        <f>D40-E40</f>
-        <v>-296899675.82596254</v>
+        <f t="shared" si="1"/>
+        <v>-469602930.21594667</v>
       </c>
       <c r="H40" s="2"/>
     </row>
@@ -1727,24 +1728,24 @@
         <v>24</v>
       </c>
       <c r="C41" s="4">
-        <f>IF((B41&lt;=($G$9-$G$10)),C40+G40,0)</f>
-        <v>3133871011.1023464</v>
+        <f t="shared" si="2"/>
+        <v>1075074331.1702991</v>
       </c>
       <c r="D41" s="5">
-        <f t="shared" si="0"/>
-        <v>150425808.53291264</v>
+        <f t="shared" si="3"/>
+        <v>51603567.896174356</v>
       </c>
       <c r="E41" s="4">
-        <f>IF((B41&lt;=($G$9-$G$10)),E40*(1+$G$7),0)</f>
-        <v>480039735.55046225</v>
+        <f t="shared" si="4"/>
+        <v>565497336.3129859</v>
       </c>
       <c r="F41" s="4">
-        <f>E41/12</f>
-        <v>40003311.295871854</v>
+        <f t="shared" si="0"/>
+        <v>47124778.026082158</v>
       </c>
       <c r="G41" s="4">
-        <f>D41-E41</f>
-        <v>-329613927.01754963</v>
+        <f t="shared" si="1"/>
+        <v>-513893768.41681153</v>
       </c>
       <c r="H41" s="2"/>
     </row>
@@ -1753,24 +1754,24 @@
         <v>25</v>
       </c>
       <c r="C42" s="4">
-        <f>IF((B42&lt;=($G$9-$G$10)),C41+G41,0)</f>
-        <v>2804257084.0847969</v>
+        <f t="shared" si="2"/>
+        <v>561180562.75348759</v>
       </c>
       <c r="D42" s="5">
-        <f t="shared" si="0"/>
-        <v>134604340.03607026</v>
+        <f t="shared" si="3"/>
+        <v>26936667.012167405</v>
       </c>
       <c r="E42" s="4">
-        <f>IF((B42&lt;=($G$9-$G$10)),E41*(1+$G$7),0)</f>
-        <v>499241324.97248077</v>
+        <f t="shared" si="4"/>
+        <v>588117229.76550531</v>
       </c>
       <c r="F42" s="4">
-        <f>E42/12</f>
-        <v>41603443.747706734</v>
+        <f t="shared" si="0"/>
+        <v>49009769.147125445</v>
       </c>
       <c r="G42" s="4">
-        <f>D42-E42</f>
-        <v>-364636984.93641055</v>
+        <f t="shared" si="1"/>
+        <v>-561180562.75333786</v>
       </c>
       <c r="H42" s="2"/>
     </row>
@@ -1779,24 +1780,24 @@
         <v>26</v>
       </c>
       <c r="C43" s="4">
-        <f>IF((B43&lt;=($G$9-$G$10)),C42+G42,0)</f>
-        <v>2439620099.1483865</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="D43" s="5">
-        <f t="shared" si="0"/>
-        <v>117101764.75912255</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="E43" s="4">
-        <f>IF((B43&lt;=($G$9-$G$10)),E42*(1+$G$7),0)</f>
-        <v>519210977.97138</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="F43" s="4">
-        <f>E43/12</f>
-        <v>43267581.497615002</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G43" s="4">
-        <f>D43-E43</f>
-        <v>-402109213.21225744</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H43" s="2"/>
     </row>
@@ -1805,24 +1806,24 @@
         <v>27</v>
       </c>
       <c r="C44" s="4">
-        <f>IF((B44&lt;=($G$9-$G$10)),C43+G43,0)</f>
-        <v>2037510885.9361291</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="D44" s="5">
-        <f t="shared" si="0"/>
-        <v>97800522.524934202</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="E44" s="4">
-        <f>IF((B44&lt;=($G$9-$G$10)),E43*(1+$G$7),0)</f>
-        <v>539979417.09023523</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="F44" s="4">
-        <f>E44/12</f>
-        <v>44998284.757519603</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G44" s="4">
-        <f>D44-E44</f>
-        <v>-442178894.56530106</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H44" s="2"/>
     </row>
@@ -1831,24 +1832,24 @@
         <v>28</v>
       </c>
       <c r="C45" s="4">
-        <f>IF((B45&lt;=($G$9-$G$10)),C44+G44,0)</f>
-        <v>1595331991.3708282</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="D45" s="5">
-        <f t="shared" si="0"/>
-        <v>76575935.585799754</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="E45" s="4">
-        <f>IF((B45&lt;=($G$9-$G$10)),E44*(1+$G$7),0)</f>
-        <v>561578593.77384472</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="F45" s="4">
-        <f>E45/12</f>
-        <v>46798216.147820391</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G45" s="4">
-        <f>D45-E45</f>
-        <v>-485002658.18804497</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H45" s="2"/>
     </row>
@@ -1857,24 +1858,24 @@
         <v>29</v>
       </c>
       <c r="C46" s="4">
-        <f>IF((B46&lt;=($G$9-$G$10)),C45+G45,0)</f>
-        <v>1110329333.1827831</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="D46" s="5">
-        <f t="shared" si="0"/>
-        <v>53295807.992773592</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="E46" s="4">
-        <f>IF((B46&lt;=($G$9-$G$10)),E45*(1+$G$7),0)</f>
-        <v>584041737.52479851</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="F46" s="4">
-        <f>E46/12</f>
-        <v>48670144.793733209</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G46" s="4">
-        <f>D46-E46</f>
-        <v>-530745929.53202492</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H46" s="2"/>
     </row>
@@ -1883,24 +1884,24 @@
         <v>30</v>
       </c>
       <c r="C47" s="4">
-        <f>IF((B47&lt;=($G$9-$G$10)),C46+G46,0)</f>
-        <v>579583403.65075827</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="D47" s="5">
-        <f t="shared" si="0"/>
-        <v>27820003.375236396</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="E47" s="4">
-        <f>IF((B47&lt;=($G$9-$G$10)),E46*(1+$G$7),0)</f>
-        <v>607403407.02579045</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="F47" s="4">
-        <f>E47/12</f>
-        <v>50616950.585482538</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G47" s="4">
-        <f>D47-E47</f>
-        <v>-579583403.65055406</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="H47" s="2"/>
     </row>
@@ -1909,23 +1910,23 @@
         <v>31</v>
       </c>
       <c r="C48" s="4">
-        <f>IF((B48&lt;=($G$9-$G$10)),C47+G47,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D48" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E48" s="4">
-        <f>IF((B48&lt;=($G$9-$G$10)),E47*(1+$G$7),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F48" s="4">
-        <f>E48/12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G48" s="4">
-        <f>D48-E48</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H48" s="2"/>
@@ -1935,23 +1936,23 @@
         <v>32</v>
       </c>
       <c r="C49" s="4">
-        <f>IF((B49&lt;=($G$9-$G$10)),C48+G48,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D49" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E49" s="4">
-        <f>IF((B49&lt;=($G$9-$G$10)),E48*(1+$G$7),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F49" s="4">
-        <f>E49/12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G49" s="4">
-        <f>D49-E49</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H49" s="2"/>
@@ -1961,23 +1962,23 @@
         <v>33</v>
       </c>
       <c r="C50" s="4">
-        <f>IF((B50&lt;=($G$9-$G$10)),C49+G49,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D50" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E50" s="4">
-        <f>IF((B50&lt;=($G$9-$G$10)),E49*(1+$G$7),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F50" s="4">
-        <f>E50/12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G50" s="4">
-        <f>D50-E50</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H50" s="2"/>
@@ -1987,23 +1988,23 @@
         <v>34</v>
       </c>
       <c r="C51" s="4">
-        <f>IF((B51&lt;=($G$9-$G$10)),C50+G50,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D51" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E51" s="4">
-        <f>IF((B51&lt;=($G$9-$G$10)),E50*(1+$G$7),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F51" s="4">
-        <f>E51/12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G51" s="4">
-        <f>D51-E51</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H51" s="2"/>
@@ -2013,23 +2014,23 @@
         <v>35</v>
       </c>
       <c r="C52" s="4">
-        <f>IF((B52&lt;=($G$9-$G$10)),C51+G51,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D52" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E52" s="4">
-        <f>IF((B52&lt;=($G$9-$G$10)),E51*(1+$G$7),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F52" s="4">
-        <f>E52/12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G52" s="4">
-        <f>D52-E52</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H52" s="2"/>
@@ -2039,23 +2040,23 @@
         <v>36</v>
       </c>
       <c r="C53" s="4">
-        <f>IF((B53&lt;=($G$9-$G$10)),C52+G52,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D53" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E53" s="4">
-        <f>IF((B53&lt;=($G$9-$G$10)),E52*(1+$G$7),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F53" s="4">
-        <f>E53/12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G53" s="4">
-        <f>D53-E53</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H53" s="2"/>
@@ -2065,23 +2066,23 @@
         <v>37</v>
       </c>
       <c r="C54" s="4">
-        <f>IF((B54&lt;=($G$9-$G$10)),C53+G53,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D54" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E54" s="4">
-        <f>IF((B54&lt;=($G$9-$G$10)),E53*(1+$G$7),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F54" s="4">
-        <f>E54/12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G54" s="4">
-        <f>D54-E54</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H54" s="2"/>
@@ -2091,23 +2092,23 @@
         <v>38</v>
       </c>
       <c r="C55" s="4">
-        <f>IF((B55&lt;=($G$9-$G$10)),C54+G54,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D55" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E55" s="4">
-        <f>IF((B55&lt;=($G$9-$G$10)),E54*(1+$G$7),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F55" s="4">
-        <f>E55/12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G55" s="4">
-        <f>D55-E55</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H55" s="2"/>
@@ -2117,23 +2118,23 @@
         <v>39</v>
       </c>
       <c r="C56" s="4">
-        <f>IF((B56&lt;=($G$9-$G$10)),C55+G55,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D56" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E56" s="4">
-        <f>IF((B56&lt;=($G$9-$G$10)),E55*(1+$G$7),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F56" s="4">
-        <f>E56/12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G56" s="4">
-        <f>D56-E56</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H56" s="2"/>
@@ -2143,23 +2144,23 @@
         <v>40</v>
       </c>
       <c r="C57" s="4">
-        <f>IF((B57&lt;=($G$9-$G$10)),C56+G56,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D57" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E57" s="4">
-        <f>IF((B57&lt;=($G$9-$G$10)),E56*(1+$G$7),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F57" s="4">
-        <f>E57/12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G57" s="4">
-        <f>D57-E57</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H57" s="2"/>
@@ -2169,23 +2170,23 @@
         <v>41</v>
       </c>
       <c r="C58" s="4">
-        <f>IF((B58&lt;=($G$9-$G$10)),C57+G57,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D58" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E58" s="4">
-        <f>IF((B58&lt;=($G$9-$G$10)),E57*(1+$G$7),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F58" s="4">
-        <f>E58/12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G58" s="4">
-        <f>D58-E58</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H58" s="2"/>
@@ -2195,23 +2196,23 @@
         <v>42</v>
       </c>
       <c r="C59" s="4">
-        <f>IF((B59&lt;=($G$9-$G$10)),C58+G58,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D59" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E59" s="4">
-        <f>IF((B59&lt;=($G$9-$G$10)),E58*(1+$G$7),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F59" s="4">
-        <f>E59/12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G59" s="4">
-        <f>D59-E59</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H59" s="2"/>
@@ -2221,23 +2222,23 @@
         <v>43</v>
       </c>
       <c r="C60" s="4">
-        <f>IF((B60&lt;=($G$9-$G$10)),C59+G59,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D60" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E60" s="4">
-        <f>IF((B60&lt;=($G$9-$G$10)),E59*(1+$G$7),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F60" s="4">
-        <f>E60/12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G60" s="4">
-        <f>D60-E60</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H60" s="2"/>
@@ -2247,30 +2248,1443 @@
         <v>44</v>
       </c>
       <c r="C61" s="4">
-        <f>IF((B61&lt;=($G$9-$G$10)),C60+G60,0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="D61" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E61" s="4">
-        <f>IF((B61&lt;=($G$9-$G$10)),E60*(1+$G$7),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F61" s="4">
-        <f>E61/12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G61" s="4">
-        <f>D61-E61</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H61" s="2"/>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="C62" s="4"/>
-      <c r="D62" s="5"/>
+      <c r="B62" s="2">
+        <v>45</v>
+      </c>
+      <c r="C62" s="4">
+        <f t="shared" ref="C62:C84" si="5">IF((B62&lt;=($G$9-$G$10)),C61+G61,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D62" s="5">
+        <f t="shared" ref="D62:D84" si="6">C62*$K$6</f>
+        <v>0</v>
+      </c>
+      <c r="E62" s="4">
+        <f t="shared" ref="E62:E84" si="7">IF((B62&lt;=($G$9-$G$10)),E61*(1+$G$7),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F62" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G62" s="4">
+        <f t="shared" ref="G62:G84" si="8">D62-E62</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B63" s="2">
+        <v>46</v>
+      </c>
+      <c r="C63" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D63" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E63" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F63" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G63" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B64" s="2">
+        <v>47</v>
+      </c>
+      <c r="C64" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D64" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E64" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F64" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G64" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B65" s="2">
+        <v>48</v>
+      </c>
+      <c r="C65" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D65" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E65" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F65" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G65" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B66" s="2">
+        <v>49</v>
+      </c>
+      <c r="C66" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D66" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E66" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F66" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G66" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B67" s="2">
+        <v>50</v>
+      </c>
+      <c r="C67" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D67" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E67" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F67" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G67" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B68" s="2">
+        <v>51</v>
+      </c>
+      <c r="C68" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D68" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E68" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F68" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G68" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B69" s="2">
+        <v>52</v>
+      </c>
+      <c r="C69" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D69" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E69" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F69" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G69" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B70" s="2">
+        <v>53</v>
+      </c>
+      <c r="C70" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D70" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E70" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F70" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G70" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B71" s="2">
+        <v>54</v>
+      </c>
+      <c r="C71" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D71" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E71" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F71" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G71" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B72" s="2">
+        <v>55</v>
+      </c>
+      <c r="C72" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D72" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E72" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F72" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G72" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B73" s="2">
+        <v>56</v>
+      </c>
+      <c r="C73" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D73" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E73" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F73" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G73" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B74" s="2">
+        <v>57</v>
+      </c>
+      <c r="C74" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D74" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E74" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F74" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G74" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B75" s="2">
+        <v>58</v>
+      </c>
+      <c r="C75" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D75" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E75" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F75" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G75" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B76" s="2">
+        <v>59</v>
+      </c>
+      <c r="C76" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D76" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E76" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F76" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G76" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B77" s="2">
+        <v>60</v>
+      </c>
+      <c r="C77" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D77" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E77" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F77" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G77" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B78" s="2">
+        <v>61</v>
+      </c>
+      <c r="C78" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D78" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E78" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F78" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G78" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B79" s="2">
+        <v>62</v>
+      </c>
+      <c r="C79" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D79" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E79" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F79" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G79" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B80" s="2">
+        <v>63</v>
+      </c>
+      <c r="C80" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D80" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E80" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F80" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G80" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B81" s="2">
+        <v>64</v>
+      </c>
+      <c r="C81" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D81" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E81" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F81" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G81" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B82" s="2">
+        <v>65</v>
+      </c>
+      <c r="C82" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D82" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E82" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F82" s="4">
+        <f t="shared" ref="F82" si="9">E82/12</f>
+        <v>0</v>
+      </c>
+      <c r="G82" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B83" s="2">
+        <v>66</v>
+      </c>
+      <c r="C83" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D83" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E83" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F83" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G83" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B84" s="2">
+        <v>67</v>
+      </c>
+      <c r="C84" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="D84" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E84" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F84" s="4">
+        <f t="shared" ref="F84:F122" si="10">E84/12</f>
+        <v>0</v>
+      </c>
+      <c r="G84" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B85" s="2">
+        <v>68</v>
+      </c>
+      <c r="C85" s="4">
+        <f t="shared" ref="C85:C122" si="11">IF((B85&lt;=($G$9-$G$10)),C84+G84,0)</f>
+        <v>0</v>
+      </c>
+      <c r="D85" s="5">
+        <f t="shared" ref="D85:D122" si="12">C85*$K$6</f>
+        <v>0</v>
+      </c>
+      <c r="E85" s="4">
+        <f t="shared" ref="E85:E122" si="13">IF((B85&lt;=($G$9-$G$10)),E84*(1+$G$7),0)</f>
+        <v>0</v>
+      </c>
+      <c r="F85" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G85" s="4">
+        <f t="shared" ref="G85:G122" si="14">D85-E85</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B86" s="2">
+        <v>69</v>
+      </c>
+      <c r="C86" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D86" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E86" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F86" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G86" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B87" s="2">
+        <v>70</v>
+      </c>
+      <c r="C87" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D87" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E87" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F87" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G87" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B88" s="2">
+        <v>71</v>
+      </c>
+      <c r="C88" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D88" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E88" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F88" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G88" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B89" s="2">
+        <v>72</v>
+      </c>
+      <c r="C89" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D89" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E89" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F89" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G89" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B90" s="2">
+        <v>73</v>
+      </c>
+      <c r="C90" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D90" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E90" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F90" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G90" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B91" s="2">
+        <v>74</v>
+      </c>
+      <c r="C91" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D91" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E91" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F91" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G91" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B92" s="2">
+        <v>75</v>
+      </c>
+      <c r="C92" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D92" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E92" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F92" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G92" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B93" s="2">
+        <v>76</v>
+      </c>
+      <c r="C93" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D93" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E93" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F93" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G93" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B94" s="2">
+        <v>77</v>
+      </c>
+      <c r="C94" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D94" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E94" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F94" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G94" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B95" s="2">
+        <v>78</v>
+      </c>
+      <c r="C95" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D95" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E95" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F95" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G95" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B96" s="2">
+        <v>79</v>
+      </c>
+      <c r="C96" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D96" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E96" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F96" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G96" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B97" s="2">
+        <v>80</v>
+      </c>
+      <c r="C97" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D97" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E97" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F97" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G97" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B98" s="2">
+        <v>81</v>
+      </c>
+      <c r="C98" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D98" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E98" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F98" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G98" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B99" s="2">
+        <v>82</v>
+      </c>
+      <c r="C99" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D99" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E99" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F99" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G99" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B100" s="2">
+        <v>83</v>
+      </c>
+      <c r="C100" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D100" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E100" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F100" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G100" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B101" s="2">
+        <v>84</v>
+      </c>
+      <c r="C101" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D101" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E101" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F101" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G101" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B102" s="2">
+        <v>85</v>
+      </c>
+      <c r="C102" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D102" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E102" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F102" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G102" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B103" s="2">
+        <v>86</v>
+      </c>
+      <c r="C103" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D103" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E103" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F103" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G103" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B104" s="2">
+        <v>87</v>
+      </c>
+      <c r="C104" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D104" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E104" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F104" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G104" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B105" s="2">
+        <v>88</v>
+      </c>
+      <c r="C105" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D105" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E105" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F105" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G105" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B106" s="2">
+        <v>89</v>
+      </c>
+      <c r="C106" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D106" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E106" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F106" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G106" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B107" s="2">
+        <v>90</v>
+      </c>
+      <c r="C107" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D107" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E107" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F107" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G107" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B108" s="2">
+        <v>91</v>
+      </c>
+      <c r="C108" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D108" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E108" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F108" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G108" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B109" s="2">
+        <v>92</v>
+      </c>
+      <c r="C109" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D109" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E109" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F109" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G109" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B110" s="2">
+        <v>93</v>
+      </c>
+      <c r="C110" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D110" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E110" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F110" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G110" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B111" s="2">
+        <v>94</v>
+      </c>
+      <c r="C111" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D111" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E111" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F111" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G111" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B112" s="2">
+        <v>95</v>
+      </c>
+      <c r="C112" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D112" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E112" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F112" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G112" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B113" s="2">
+        <v>96</v>
+      </c>
+      <c r="C113" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D113" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E113" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F113" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G113" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B114" s="2">
+        <v>97</v>
+      </c>
+      <c r="C114" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D114" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E114" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F114" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G114" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B115" s="2">
+        <v>98</v>
+      </c>
+      <c r="C115" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D115" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E115" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F115" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G115" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B116" s="2">
+        <v>99</v>
+      </c>
+      <c r="C116" s="4">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D116" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E116" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F116" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G116" s="4">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C117" s="4"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C118" s="4"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C119" s="4"/>
+      <c r="D119" s="5"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C120" s="4"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C121" s="4"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C122" s="4"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/Retirement Calculator.xlsx
+++ b/Retirement Calculator.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alvin/Documents/personal_finance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C295111-7B7F-3641-AB76-1083491D125D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A9FB31-E6A8-844D-8658-80EABE70CC8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="940" windowWidth="25960" windowHeight="15980" xr2:uid="{91891DFC-1311-9B41-84E4-7377BD9BF455}"/>
   </bookViews>
@@ -911,7 +911,7 @@
   <dimension ref="B1:K122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="116" zoomScaleNormal="92" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -957,7 +957,7 @@
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="6">
-        <v>5000000000</v>
+        <v>2000000000</v>
       </c>
       <c r="H5" s="2"/>
       <c r="J5" s="2" t="s">
@@ -965,7 +965,7 @@
       </c>
       <c r="K5" s="2">
         <f>G9-G10</f>
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
@@ -977,7 +977,7 @@
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="7">
-        <v>0.06</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="H6" s="2"/>
       <c r="J6" s="2" t="s">
@@ -985,7 +985,7 @@
       </c>
       <c r="K6" s="11">
         <f>G6*(1-G8)</f>
-        <v>4.8000000000000001E-2</v>
+        <v>3.5999999999999997E-2</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
@@ -997,7 +997,7 @@
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="7">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="H7" s="2"/>
       <c r="J7" s="2" t="s">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="K7" s="12">
         <f>(1+$K$6)/(1+$G$7)</f>
-        <v>1.0076923076923077</v>
+        <v>1.0058252427184466</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
@@ -1025,7 +1025,7 @@
       </c>
       <c r="K8" s="12">
         <f>(1+$G$7)^(1-$K$5)</f>
-        <v>0.39012147434412242</v>
+        <v>0.42434636230138412</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
@@ -1037,7 +1037,7 @@
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="8">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H9" s="2"/>
       <c r="J9" s="2" t="s">
@@ -1045,7 +1045,7 @@
       </c>
       <c r="K9" s="3">
         <f>$K$8*(1-$K$7)*($C$18*(1+$K$6)^($K$5))/(1-($K$7^($K$5)))</f>
-        <v>229437160.76330003</v>
+        <v>75040635.187190801</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
@@ -1074,7 +1074,7 @@
       <c r="F12" s="14"/>
       <c r="G12" s="6">
         <f>$K$9</f>
-        <v>229437160.76330003</v>
+        <v>75040635.187190801</v>
       </c>
       <c r="H12" s="2"/>
     </row>
@@ -1088,7 +1088,7 @@
       <c r="F13" s="14"/>
       <c r="G13" s="6">
         <f>G12/12</f>
-        <v>19119763.396941669</v>
+        <v>6253386.2655992331</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -1131,23 +1131,23 @@
       </c>
       <c r="C18" s="5">
         <f>G5</f>
-        <v>5000000000</v>
+        <v>2000000000</v>
       </c>
       <c r="D18" s="5">
         <f>C18*$K$6</f>
-        <v>240000000</v>
+        <v>72000000</v>
       </c>
       <c r="E18" s="4">
         <f>K9</f>
-        <v>229437160.76330003</v>
+        <v>75040635.187190801</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" ref="F18:F83" si="0">E18/12</f>
-        <v>19119763.396941669</v>
+        <v>6253386.2655992331</v>
       </c>
       <c r="G18" s="4">
         <f t="shared" ref="G18:G61" si="1">D18-E18</f>
-        <v>10562839.236699969</v>
+        <v>-3040635.1871908009</v>
       </c>
       <c r="H18" s="2"/>
     </row>
@@ -1157,23 +1157,23 @@
       </c>
       <c r="C19" s="4">
         <f t="shared" ref="C19:C61" si="2">IF((B19&lt;=($G$9-$G$10)),C18+G18,0)</f>
-        <v>5010562839.2367001</v>
+        <v>1996959364.8128092</v>
       </c>
       <c r="D19" s="5">
         <f t="shared" ref="D19:D61" si="3">C19*$K$6</f>
-        <v>240507016.28336161</v>
+        <v>71890537.133261129</v>
       </c>
       <c r="E19" s="4">
         <f t="shared" ref="E19:E61" si="4">IF((B19&lt;=($G$9-$G$10)),E18*(1+$G$7),0)</f>
-        <v>238614647.19383204</v>
+        <v>77291854.242806524</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" si="0"/>
-        <v>19884553.932819337</v>
+        <v>6440987.85356721</v>
       </c>
       <c r="G19" s="4">
         <f t="shared" si="1"/>
-        <v>1892369.0895295739</v>
+        <v>-5401317.1095453948</v>
       </c>
       <c r="H19" s="2"/>
     </row>
@@ -1183,23 +1183,23 @@
       </c>
       <c r="C20" s="4">
         <f t="shared" si="2"/>
-        <v>5012455208.32623</v>
+        <v>1991558047.7032638</v>
       </c>
       <c r="D20" s="5">
         <f t="shared" si="3"/>
-        <v>240597849.99965906</v>
+        <v>71696089.717317492</v>
       </c>
       <c r="E20" s="4">
         <f t="shared" si="4"/>
-        <v>248159233.08158532</v>
+        <v>79610609.870090723</v>
       </c>
       <c r="F20" s="4">
         <f t="shared" si="0"/>
-        <v>20679936.09013211</v>
+        <v>6634217.4891742272</v>
       </c>
       <c r="G20" s="4">
         <f t="shared" si="1"/>
-        <v>-7561383.0819262564</v>
+        <v>-7914520.1527732313</v>
       </c>
       <c r="H20" s="2"/>
     </row>
@@ -1209,23 +1209,23 @@
       </c>
       <c r="C21" s="4">
         <f t="shared" si="2"/>
-        <v>5004893825.2443037</v>
+        <v>1983643527.5504906</v>
       </c>
       <c r="D21" s="5">
         <f t="shared" si="3"/>
-        <v>240234903.61172658</v>
+        <v>71411166.991817653</v>
       </c>
       <c r="E21" s="4">
         <f t="shared" si="4"/>
-        <v>258085602.40484872</v>
+        <v>81998928.166193441</v>
       </c>
       <c r="F21" s="4">
         <f t="shared" si="0"/>
-        <v>21507133.533737395</v>
+        <v>6833244.0138494531</v>
       </c>
       <c r="G21" s="4">
         <f t="shared" si="1"/>
-        <v>-17850698.793122143</v>
+        <v>-10587761.174375787</v>
       </c>
       <c r="H21" s="2"/>
     </row>
@@ -1235,23 +1235,23 @@
       </c>
       <c r="C22" s="4">
         <f t="shared" si="2"/>
-        <v>4987043126.4511814</v>
+        <v>1973055766.3761148</v>
       </c>
       <c r="D22" s="5">
         <f t="shared" si="3"/>
-        <v>239378070.0696567</v>
+        <v>71030007.589540124</v>
       </c>
       <c r="E22" s="4">
         <f t="shared" si="4"/>
-        <v>268409026.50104269</v>
+        <v>84458896.011179239</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" si="0"/>
-        <v>22367418.875086892</v>
+        <v>7038241.3342649369</v>
       </c>
       <c r="G22" s="4">
         <f t="shared" si="1"/>
-        <v>-29030956.431385994</v>
+        <v>-13428888.421639115</v>
       </c>
       <c r="H22" s="2"/>
     </row>
@@ -1261,23 +1261,23 @@
       </c>
       <c r="C23" s="4">
         <f t="shared" si="2"/>
-        <v>4958012170.0197954</v>
+        <v>1959626877.9544756</v>
       </c>
       <c r="D23" s="5">
         <f t="shared" si="3"/>
-        <v>237984584.16095018</v>
+        <v>70546567.606361121</v>
       </c>
       <c r="E23" s="4">
         <f t="shared" si="4"/>
-        <v>279145387.56108439</v>
+        <v>86992662.891514614</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" si="0"/>
-        <v>23262115.630090367</v>
+        <v>7249388.5742928842</v>
       </c>
       <c r="G23" s="4">
         <f t="shared" si="1"/>
-        <v>-41160803.400134206</v>
+        <v>-16446095.285153493</v>
       </c>
       <c r="H23" s="2"/>
     </row>
@@ -1287,23 +1287,23 @@
       </c>
       <c r="C24" s="4">
         <f t="shared" si="2"/>
-        <v>4916851366.6196613</v>
+        <v>1943180782.6693223</v>
       </c>
       <c r="D24" s="5">
         <f t="shared" si="3"/>
-        <v>236008865.59774375</v>
+        <v>69954508.17609559</v>
       </c>
       <c r="E24" s="4">
         <f t="shared" si="4"/>
-        <v>290311203.06352776</v>
+        <v>89602442.778260052</v>
       </c>
       <c r="F24" s="4">
         <f t="shared" si="0"/>
-        <v>24192600.25529398</v>
+        <v>7466870.2315216707</v>
       </c>
       <c r="G24" s="4">
         <f t="shared" si="1"/>
-        <v>-54302337.465784013</v>
+        <v>-19647934.602164462</v>
       </c>
       <c r="H24" s="2"/>
     </row>
@@ -1313,23 +1313,23 @@
       </c>
       <c r="C25" s="4">
         <f t="shared" si="2"/>
-        <v>4862549029.1538773</v>
+        <v>1923532848.0671577</v>
       </c>
       <c r="D25" s="5">
         <f t="shared" si="3"/>
-        <v>233402353.39938611</v>
+        <v>69247182.530417681</v>
       </c>
       <c r="E25" s="4">
         <f t="shared" si="4"/>
-        <v>301923651.18606889</v>
+        <v>92290516.061607853</v>
       </c>
       <c r="F25" s="4">
         <f t="shared" si="0"/>
-        <v>25160304.265505742</v>
+        <v>7690876.3384673214</v>
       </c>
       <c r="G25" s="4">
         <f t="shared" si="1"/>
-        <v>-68521297.786682785</v>
+        <v>-23043333.531190172</v>
       </c>
       <c r="H25" s="2"/>
     </row>
@@ -1339,23 +1339,23 @@
       </c>
       <c r="C26" s="4">
         <f t="shared" si="2"/>
-        <v>4794027731.3671942</v>
+        <v>1900489514.5359676</v>
       </c>
       <c r="D26" s="5">
         <f t="shared" si="3"/>
-        <v>230113331.10562533</v>
+        <v>68417622.523294821</v>
       </c>
       <c r="E26" s="4">
         <f t="shared" si="4"/>
-        <v>314000597.23351169</v>
+        <v>95059231.543456092</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" si="0"/>
-        <v>26166716.436125975</v>
+        <v>7921602.6286213407</v>
       </c>
       <c r="G26" s="4">
         <f t="shared" si="1"/>
-        <v>-83887266.127886355</v>
+        <v>-26641609.020161271</v>
       </c>
       <c r="H26" s="2"/>
     </row>
@@ -1365,23 +1365,23 @@
       </c>
       <c r="C27" s="4">
         <f t="shared" si="2"/>
-        <v>4710140465.2393074</v>
+        <v>1873847905.5158062</v>
       </c>
       <c r="D27" s="5">
         <f t="shared" si="3"/>
-        <v>226086742.33148676</v>
+        <v>67458524.598569021</v>
       </c>
       <c r="E27" s="4">
         <f t="shared" si="4"/>
-        <v>326560621.12285215</v>
+        <v>97911008.489759773</v>
       </c>
       <c r="F27" s="4">
         <f t="shared" si="0"/>
-        <v>27213385.093571011</v>
+        <v>8159250.7074799808</v>
       </c>
       <c r="G27" s="4">
         <f t="shared" si="1"/>
-        <v>-100473878.79136539</v>
+        <v>-30452483.891190752</v>
       </c>
       <c r="H27" s="2"/>
     </row>
@@ -1391,23 +1391,23 @@
       </c>
       <c r="C28" s="4">
         <f t="shared" si="2"/>
-        <v>4609666586.4479418</v>
+        <v>1843395421.6246154</v>
       </c>
       <c r="D28" s="5">
         <f t="shared" si="3"/>
-        <v>221263996.1495012</v>
+        <v>66362235.178486153</v>
       </c>
       <c r="E28" s="4">
         <f t="shared" si="4"/>
-        <v>339623045.96776623</v>
+        <v>100848338.74445257</v>
       </c>
       <c r="F28" s="4">
         <f t="shared" si="0"/>
-        <v>28301920.497313853</v>
+        <v>8404028.2287043799</v>
       </c>
       <c r="G28" s="4">
         <f t="shared" si="1"/>
-        <v>-118359049.81826502</v>
+        <v>-34486103.565966412</v>
       </c>
       <c r="H28" s="2"/>
     </row>
@@ -1417,23 +1417,23 @@
       </c>
       <c r="C29" s="4">
         <f t="shared" si="2"/>
-        <v>4491307536.6296768</v>
+        <v>1808909318.0586491</v>
       </c>
       <c r="D29" s="5">
         <f t="shared" si="3"/>
-        <v>215582761.75822449</v>
+        <v>65120735.450111359</v>
       </c>
       <c r="E29" s="4">
         <f t="shared" si="4"/>
-        <v>353207967.80647689</v>
+        <v>103873788.90678614</v>
       </c>
       <c r="F29" s="4">
         <f t="shared" si="0"/>
-        <v>29433997.317206409</v>
+        <v>8656149.0755655114</v>
       </c>
       <c r="G29" s="4">
         <f t="shared" si="1"/>
-        <v>-137625206.0482524</v>
+        <v>-38753053.456674784</v>
       </c>
       <c r="H29" s="2"/>
     </row>
@@ -1443,23 +1443,23 @@
       </c>
       <c r="C30" s="4">
         <f t="shared" si="2"/>
-        <v>4353682330.5814247</v>
+        <v>1770156264.6019742</v>
       </c>
       <c r="D30" s="5">
         <f t="shared" si="3"/>
-        <v>208976751.86790839</v>
+        <v>63725625.525671065</v>
       </c>
       <c r="E30" s="4">
         <f t="shared" si="4"/>
-        <v>367336286.518736</v>
+        <v>106990002.57398973</v>
       </c>
       <c r="F30" s="4">
         <f t="shared" si="0"/>
-        <v>30611357.209894668</v>
+        <v>8915833.5478324778</v>
       </c>
       <c r="G30" s="4">
         <f t="shared" si="1"/>
-        <v>-158359534.65082762</v>
+        <v>-43264377.048318669</v>
       </c>
       <c r="H30" s="2"/>
     </row>
@@ -1469,23 +1469,23 @@
       </c>
       <c r="C31" s="4">
         <f t="shared" si="2"/>
-        <v>4195322795.9305973</v>
+        <v>1726891887.5536556</v>
       </c>
       <c r="D31" s="5">
         <f t="shared" si="3"/>
-        <v>201375494.20466867</v>
+        <v>62168107.951931596</v>
       </c>
       <c r="E31" s="4">
         <f t="shared" si="4"/>
-        <v>382029737.97948545</v>
+        <v>110199702.65120943</v>
       </c>
       <c r="F31" s="4">
         <f t="shared" si="0"/>
-        <v>31835811.498290453</v>
+        <v>9183308.554267453</v>
       </c>
       <c r="G31" s="4">
         <f t="shared" si="1"/>
-        <v>-180654243.77481678</v>
+        <v>-48031594.699277833</v>
       </c>
       <c r="H31" s="2"/>
     </row>
@@ -1495,23 +1495,23 @@
       </c>
       <c r="C32" s="4">
         <f t="shared" si="2"/>
-        <v>4014668552.1557803</v>
+        <v>1678860292.8543777</v>
       </c>
       <c r="D32" s="5">
         <f t="shared" si="3"/>
-        <v>192704090.50347745</v>
+        <v>60438970.542757593</v>
       </c>
       <c r="E32" s="4">
         <f t="shared" si="4"/>
-        <v>397310927.49866486</v>
+        <v>113505693.73074572</v>
       </c>
       <c r="F32" s="4">
         <f t="shared" si="0"/>
-        <v>33109243.958222073</v>
+        <v>9458807.8108954765</v>
       </c>
       <c r="G32" s="4">
         <f t="shared" si="1"/>
-        <v>-204606836.9951874</v>
+        <v>-53066723.187988125</v>
       </c>
       <c r="H32" s="2"/>
     </row>
@@ -1521,23 +1521,23 @@
       </c>
       <c r="C33" s="4">
         <f t="shared" si="2"/>
-        <v>3810061715.160593</v>
+        <v>1625793569.6663897</v>
       </c>
       <c r="D33" s="5">
         <f t="shared" si="3"/>
-        <v>182882962.32770848</v>
+        <v>58528568.507990025</v>
       </c>
       <c r="E33" s="4">
         <f t="shared" si="4"/>
-        <v>413203364.59861147</v>
+        <v>116910864.54266809</v>
       </c>
       <c r="F33" s="4">
         <f t="shared" si="0"/>
-        <v>34433613.716550954</v>
+        <v>9742572.0452223402</v>
       </c>
       <c r="G33" s="4">
         <f t="shared" si="1"/>
-        <v>-230320402.27090299</v>
+        <v>-58382296.034678064</v>
       </c>
       <c r="H33" s="2"/>
     </row>
@@ -1547,23 +1547,23 @@
       </c>
       <c r="C34" s="4">
         <f t="shared" si="2"/>
-        <v>3579741312.8896899</v>
+        <v>1567411273.6317117</v>
       </c>
       <c r="D34" s="5">
         <f t="shared" si="3"/>
-        <v>171827583.01870513</v>
+        <v>56426805.850741617</v>
       </c>
       <c r="E34" s="4">
         <f t="shared" si="4"/>
-        <v>429731499.18255597</v>
+        <v>120418190.47894813</v>
       </c>
       <c r="F34" s="4">
         <f t="shared" si="0"/>
-        <v>35810958.265212998</v>
+        <v>10034849.206579011</v>
       </c>
       <c r="G34" s="4">
         <f t="shared" si="1"/>
-        <v>-257903916.16385084</v>
+        <v>-63991384.628206514</v>
       </c>
       <c r="H34" s="2"/>
     </row>
@@ -1573,23 +1573,23 @@
       </c>
       <c r="C35" s="4">
         <f t="shared" si="2"/>
-        <v>3321837396.7258391</v>
+        <v>1503419889.0035052</v>
       </c>
       <c r="D35" s="5">
         <f t="shared" si="3"/>
-        <v>159448195.04284027</v>
+        <v>54123116.004126184</v>
       </c>
       <c r="E35" s="4">
         <f t="shared" si="4"/>
-        <v>446920759.14985824</v>
+        <v>124030736.19331658</v>
       </c>
       <c r="F35" s="4">
         <f t="shared" si="0"/>
-        <v>37243396.595821522</v>
+        <v>10335894.682776382</v>
       </c>
       <c r="G35" s="4">
         <f t="shared" si="1"/>
-        <v>-287472564.10701799</v>
+        <v>-69907620.189190388</v>
       </c>
       <c r="H35" s="2"/>
     </row>
@@ -1599,23 +1599,23 @@
       </c>
       <c r="C36" s="4">
         <f t="shared" si="2"/>
-        <v>3034364832.6188211</v>
+        <v>1433512268.8143148</v>
       </c>
       <c r="D36" s="5">
         <f t="shared" si="3"/>
-        <v>145649511.96570343</v>
+        <v>51606441.677315332</v>
       </c>
       <c r="E36" s="4">
         <f t="shared" si="4"/>
-        <v>464797589.51585257</v>
+        <v>127751658.27911608</v>
       </c>
       <c r="F36" s="4">
         <f t="shared" si="0"/>
-        <v>38733132.459654383</v>
+        <v>10645971.523259673</v>
       </c>
       <c r="G36" s="4">
         <f t="shared" si="1"/>
-        <v>-319148077.55014914</v>
+        <v>-76145216.60180074</v>
       </c>
       <c r="H36" s="2"/>
     </row>
@@ -1625,23 +1625,23 @@
       </c>
       <c r="C37" s="4">
         <f t="shared" si="2"/>
-        <v>2715216755.0686722</v>
+        <v>1357367052.2125142</v>
       </c>
       <c r="D37" s="5">
         <f t="shared" si="3"/>
-        <v>130330404.24329627</v>
+        <v>48865213.879650503</v>
       </c>
       <c r="E37" s="4">
         <f t="shared" si="4"/>
-        <v>483389493.09648669</v>
+        <v>131584208.02748956</v>
       </c>
       <c r="F37" s="4">
         <f t="shared" si="0"/>
-        <v>40282457.758040555</v>
+        <v>10965350.668957463</v>
       </c>
       <c r="G37" s="4">
         <f t="shared" si="1"/>
-        <v>-353059088.85319042</v>
+        <v>-82718994.147839054</v>
       </c>
       <c r="H37" s="2"/>
     </row>
@@ -1651,23 +1651,23 @@
       </c>
       <c r="C38" s="4">
         <f t="shared" si="2"/>
-        <v>2362157666.2154818</v>
+        <v>1274648058.0646751</v>
       </c>
       <c r="D38" s="5">
         <f t="shared" si="3"/>
-        <v>113383567.97834313</v>
+        <v>45887330.090328299</v>
       </c>
       <c r="E38" s="4">
         <f t="shared" si="4"/>
-        <v>502725072.82034618</v>
+        <v>135531734.26831424</v>
       </c>
       <c r="F38" s="4">
         <f t="shared" si="0"/>
-        <v>41893756.068362184</v>
+        <v>11294311.189026186</v>
       </c>
       <c r="G38" s="4">
         <f t="shared" si="1"/>
-        <v>-389341504.84200305</v>
+        <v>-89644404.177985936</v>
       </c>
       <c r="H38" s="2"/>
     </row>
@@ -1677,23 +1677,23 @@
       </c>
       <c r="C39" s="4">
         <f t="shared" si="2"/>
-        <v>1972816161.3734787</v>
+        <v>1185003653.8866892</v>
       </c>
       <c r="D39" s="5">
         <f t="shared" si="3"/>
-        <v>94695175.745926976</v>
+        <v>42660131.539920807</v>
       </c>
       <c r="E39" s="4">
         <f t="shared" si="4"/>
-        <v>522834075.73316002</v>
+        <v>139597686.29636368</v>
       </c>
       <c r="F39" s="4">
         <f t="shared" si="0"/>
-        <v>43569506.311096668</v>
+        <v>11633140.524696974</v>
       </c>
       <c r="G39" s="4">
         <f t="shared" si="1"/>
-        <v>-428138899.98723304</v>
+        <v>-96937554.756442875</v>
       </c>
       <c r="H39" s="2"/>
     </row>
@@ -1703,23 +1703,23 @@
       </c>
       <c r="C40" s="4">
         <f t="shared" si="2"/>
-        <v>1544677261.3862457</v>
+        <v>1088066099.1302464</v>
       </c>
       <c r="D40" s="5">
         <f t="shared" si="3"/>
-        <v>74144508.546539798</v>
+        <v>39170379.568688869</v>
       </c>
       <c r="E40" s="4">
         <f t="shared" si="4"/>
-        <v>543747438.76248646</v>
+        <v>143785616.88525459</v>
       </c>
       <c r="F40" s="4">
         <f t="shared" si="0"/>
-        <v>45312286.563540541</v>
+        <v>11982134.740437882</v>
       </c>
       <c r="G40" s="4">
         <f t="shared" si="1"/>
-        <v>-469602930.21594667</v>
+        <v>-104615237.31656572</v>
       </c>
       <c r="H40" s="2"/>
     </row>
@@ -1729,23 +1729,23 @@
       </c>
       <c r="C41" s="4">
         <f t="shared" si="2"/>
-        <v>1075074331.1702991</v>
+        <v>983450861.81368065</v>
       </c>
       <c r="D41" s="5">
         <f t="shared" si="3"/>
-        <v>51603567.896174356</v>
+        <v>35404231.025292501</v>
       </c>
       <c r="E41" s="4">
         <f t="shared" si="4"/>
-        <v>565497336.3129859</v>
+        <v>148099185.39181224</v>
       </c>
       <c r="F41" s="4">
         <f t="shared" si="0"/>
-        <v>47124778.026082158</v>
+        <v>12341598.78265102</v>
       </c>
       <c r="G41" s="4">
         <f t="shared" si="1"/>
-        <v>-513893768.41681153</v>
+        <v>-112694954.36651973</v>
       </c>
       <c r="H41" s="2"/>
     </row>
@@ -1755,23 +1755,23 @@
       </c>
       <c r="C42" s="4">
         <f t="shared" si="2"/>
-        <v>561180562.75348759</v>
+        <v>870755907.44716096</v>
       </c>
       <c r="D42" s="5">
         <f t="shared" si="3"/>
-        <v>26936667.012167405</v>
+        <v>31347212.66809779</v>
       </c>
       <c r="E42" s="4">
         <f t="shared" si="4"/>
-        <v>588117229.76550531</v>
+        <v>152542160.95356661</v>
       </c>
       <c r="F42" s="4">
         <f t="shared" si="0"/>
-        <v>49009769.147125445</v>
+        <v>12711846.74613055</v>
       </c>
       <c r="G42" s="4">
         <f t="shared" si="1"/>
-        <v>-561180562.75333786</v>
+        <v>-121194948.28546882</v>
       </c>
       <c r="H42" s="2"/>
     </row>
@@ -1781,23 +1781,23 @@
       </c>
       <c r="C43" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>749560959.16169214</v>
       </c>
       <c r="D43" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>26984194.529820915</v>
       </c>
       <c r="E43" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>157118425.7821736</v>
       </c>
       <c r="F43" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13093202.148514466</v>
       </c>
       <c r="G43" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-130134231.25235268</v>
       </c>
       <c r="H43" s="2"/>
     </row>
@@ -1807,23 +1807,23 @@
       </c>
       <c r="C44" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>619426727.90933943</v>
       </c>
       <c r="D44" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>22299362.204736218</v>
       </c>
       <c r="E44" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>161831978.55563882</v>
       </c>
       <c r="F44" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13485998.212969901</v>
       </c>
       <c r="G44" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-139532616.35090262</v>
       </c>
       <c r="H44" s="2"/>
     </row>
@@ -1833,23 +1833,23 @@
       </c>
       <c r="C45" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>479894111.55843681</v>
       </c>
       <c r="D45" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>17276188.016103722</v>
       </c>
       <c r="E45" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>166686937.91230798</v>
       </c>
       <c r="F45" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13890578.159358999</v>
       </c>
       <c r="G45" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-149410749.89620426</v>
       </c>
       <c r="H45" s="2"/>
     </row>
@@ -1859,23 +1859,23 @@
       </c>
       <c r="C46" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>330483361.66223252</v>
       </c>
       <c r="D46" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>11897401.019840369</v>
       </c>
       <c r="E46" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>171687546.04967722</v>
       </c>
       <c r="F46" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14307295.504139768</v>
       </c>
       <c r="G46" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-159790145.02983686</v>
       </c>
       <c r="H46" s="2"/>
     </row>
@@ -1885,23 +1885,23 @@
       </c>
       <c r="C47" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>170693216.63239565</v>
       </c>
       <c r="D47" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6144955.7987662433</v>
       </c>
       <c r="E47" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>176838172.43116754</v>
       </c>
       <c r="F47" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14736514.369263962</v>
       </c>
       <c r="G47" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-170693216.63240129</v>
       </c>
       <c r="H47" s="2"/>
     </row>
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="F84" s="4">
-        <f t="shared" ref="F84:F122" si="10">E84/12</f>
+        <f t="shared" ref="F84:F116" si="10">E84/12</f>
         <v>0</v>
       </c>
       <c r="G84" s="4">
@@ -2849,15 +2849,15 @@
         <v>68</v>
       </c>
       <c r="C85" s="4">
-        <f t="shared" ref="C85:C122" si="11">IF((B85&lt;=($G$9-$G$10)),C84+G84,0)</f>
+        <f t="shared" ref="C85:C116" si="11">IF((B85&lt;=($G$9-$G$10)),C84+G84,0)</f>
         <v>0</v>
       </c>
       <c r="D85" s="5">
-        <f t="shared" ref="D85:D122" si="12">C85*$K$6</f>
+        <f t="shared" ref="D85:D116" si="12">C85*$K$6</f>
         <v>0</v>
       </c>
       <c r="E85" s="4">
-        <f t="shared" ref="E85:E122" si="13">IF((B85&lt;=($G$9-$G$10)),E84*(1+$G$7),0)</f>
+        <f t="shared" ref="E85:E116" si="13">IF((B85&lt;=($G$9-$G$10)),E84*(1+$G$7),0)</f>
         <v>0</v>
       </c>
       <c r="F85" s="4">
@@ -2865,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="G85" s="4">
-        <f t="shared" ref="G85:G122" si="14">D85-E85</f>
+        <f t="shared" ref="G85:G116" si="14">D85-E85</f>
         <v>0</v>
       </c>
     </row>
